--- a/skilledlist/gsmlist.xlsx
+++ b/skilledlist/gsmlist.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="8680" yWindow="1300" windowWidth="24100" windowHeight="13760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MLTSSL" sheetId="1" r:id="rId1"/>
     <sheet name="STSOL" sheetId="2" r:id="rId2"/>
     <sheet name="ROL" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="1060">
   <si>
     <t>施工项目经理</t>
   </si>
@@ -2660,63 +2665,42 @@
     <t>horse breeder</t>
   </si>
   <si>
-    <t>​131114</t>
-  </si>
-  <si>
     <t>公关经理</t>
   </si>
   <si>
     <t>public relations manager</t>
   </si>
   <si>
-    <t>​132411</t>
-  </si>
-  <si>
     <t>政策与规划经理</t>
   </si>
   <si>
     <t>policy and planning manager</t>
   </si>
   <si>
-    <t>​133112</t>
-  </si>
-  <si>
     <t>工程施工人员</t>
   </si>
   <si>
     <t>project builder</t>
   </si>
   <si>
-    <t>​133612</t>
-  </si>
-  <si>
     <t>采购经理</t>
   </si>
   <si>
     <t>procurement manager</t>
   </si>
   <si>
-    <t>​134211</t>
-  </si>
-  <si>
     <t>医务管理员</t>
   </si>
   <si>
     <t>medical administrator</t>
   </si>
   <si>
-    <t>​134412</t>
-  </si>
-  <si>
     <t>偏远地区教育经理</t>
   </si>
   <si>
     <t>regional education manager</t>
   </si>
   <si>
-    <t>​139915</t>
-  </si>
-  <si>
     <t>体育管理员</t>
   </si>
   <si>
@@ -2735,9 +2719,6 @@
     <t>post office manager</t>
   </si>
   <si>
-    <t>​149111</t>
-  </si>
-  <si>
     <t>娱乐中心经理</t>
   </si>
   <si>
@@ -2756,63 +2737,42 @@
     <t>sports centre manager</t>
   </si>
   <si>
-    <t>​149912</t>
-  </si>
-  <si>
     <t>电影院或剧院经理</t>
   </si>
   <si>
     <t>cinema or theatre manager</t>
   </si>
   <si>
-    <t>​149914</t>
-  </si>
-  <si>
     <t>金融机构分行经理</t>
   </si>
   <si>
     <t>financial institution branch manager</t>
   </si>
   <si>
-    <t>​223111</t>
-  </si>
-  <si>
     <t>人力资源顾问</t>
   </si>
   <si>
     <t>human resource adviser</t>
   </si>
   <si>
-    <t>​223113</t>
-  </si>
-  <si>
     <t>工作场所关系顾问</t>
   </si>
   <si>
     <t>workplace relations adviser</t>
   </si>
   <si>
-    <t>​224412</t>
-  </si>
-  <si>
     <t>政策分析员</t>
   </si>
   <si>
     <t>policy analyst</t>
   </si>
   <si>
-    <t>​224912</t>
-  </si>
-  <si>
     <t>联络官</t>
   </si>
   <si>
     <t>liaison officer</t>
   </si>
   <si>
-    <t>​225112</t>
-  </si>
-  <si>
     <t>市场研究分析员</t>
   </si>
   <si>
@@ -2840,9 +2800,6 @@
     <t>helicopter pilot</t>
   </si>
   <si>
-    <t>​231213</t>
-  </si>
-  <si>
     <t>船长</t>
   </si>
   <si>
@@ -2852,9 +2809,6 @@
     <t>AMSA</t>
   </si>
   <si>
-    <t>​232413</t>
-  </si>
-  <si>
     <t>多媒体设计师</t>
   </si>
   <si>
@@ -2867,63 +2821,42 @@
     <t>wine maker</t>
   </si>
   <si>
-    <t>​234311</t>
-  </si>
-  <si>
     <t>自然环境保护官员</t>
   </si>
   <si>
     <t>conservation officer</t>
   </si>
   <si>
-    <t>​234915</t>
-  </si>
-  <si>
     <t>运动生理学家</t>
   </si>
   <si>
     <t>exercise physiologist</t>
   </si>
   <si>
-    <t>​242211</t>
-  </si>
-  <si>
     <t>职业教育教师</t>
   </si>
   <si>
     <t>vocational education teacher</t>
   </si>
   <si>
-    <t>​251311</t>
-  </si>
-  <si>
     <t>环境卫生官员</t>
   </si>
   <si>
     <t>environmental health officer</t>
   </si>
   <si>
-    <t>​271214</t>
-  </si>
-  <si>
     <t>知识产权律师</t>
   </si>
   <si>
     <t>intellectual property lawyer</t>
   </si>
   <si>
-    <t>​272413</t>
-  </si>
-  <si>
     <t>翻译</t>
   </si>
   <si>
     <t>translator</t>
   </si>
   <si>
-    <t>​272611</t>
-  </si>
-  <si>
     <t>社区艺术工作者</t>
   </si>
   <si>
@@ -2936,18 +2869,12 @@
     <t>agricultural technician</t>
   </si>
   <si>
-    <t>​311214</t>
-  </si>
-  <si>
     <t>手术室技术员</t>
   </si>
   <si>
     <t>operating theatre technician</t>
   </si>
   <si>
-    <t>​311216</t>
-  </si>
-  <si>
     <t>病理采集员</t>
   </si>
   <si>
@@ -2966,36 +2893,24 @@
     <t>surveying or spatial science technician</t>
   </si>
   <si>
-    <t>​312511</t>
-  </si>
-  <si>
     <t>机械工程绘图员</t>
   </si>
   <si>
     <t>mechanical engineering draftsperson</t>
   </si>
   <si>
-    <t>​312611</t>
-  </si>
-  <si>
     <t>安全检查员</t>
   </si>
   <si>
     <t>safety inspector</t>
   </si>
   <si>
-    <t>​312911</t>
-  </si>
-  <si>
     <t>维修计划员</t>
   </si>
   <si>
     <t>maintenance planner</t>
   </si>
   <si>
-    <t>​312999</t>
-  </si>
-  <si>
     <t>其他未分类建筑和工程技术员</t>
   </si>
   <si>
@@ -3005,151 +2920,100 @@
     <t>VETASSESS or Engineers Australia</t>
   </si>
   <si>
-    <t>​324311</t>
-  </si>
-  <si>
     <t>车辆油漆工</t>
   </si>
   <si>
     <t>vehicle painter</t>
   </si>
   <si>
-    <t>​332111</t>
-  </si>
-  <si>
     <t>地板安装工</t>
   </si>
   <si>
     <t>floor finisher</t>
   </si>
   <si>
-    <t>​342211</t>
-  </si>
-  <si>
     <t>电气接线员</t>
   </si>
   <si>
     <t>electrical linesworker</t>
   </si>
   <si>
-    <t>​361114</t>
-  </si>
-  <si>
     <t>动物园饲养员</t>
   </si>
   <si>
     <t>zookeeper</t>
   </si>
   <si>
-    <t>​362411</t>
-  </si>
-  <si>
     <t>托儿所保育员</t>
   </si>
   <si>
     <t>nurseryperson</t>
   </si>
   <si>
-    <t>​399212</t>
-  </si>
-  <si>
     <t>气体或石油操作员</t>
   </si>
   <si>
     <t>gas or petroleum operator</t>
   </si>
   <si>
-    <t>​411211</t>
-  </si>
-  <si>
     <t>牙科保健员</t>
   </si>
   <si>
     <t>dental hygienist</t>
   </si>
   <si>
-    <t>​411214</t>
-  </si>
-  <si>
     <t>牙科治疗师</t>
   </si>
   <si>
     <t>dental therapist</t>
   </si>
   <si>
-    <t>​441211</t>
-  </si>
-  <si>
     <t>急救服务人员</t>
   </si>
   <si>
     <t>emergency service worker</t>
   </si>
   <si>
-    <t>​451211</t>
-  </si>
-  <si>
     <t>驾驶教练</t>
   </si>
   <si>
     <t>driving instructor</t>
   </si>
   <si>
-    <t>​451399</t>
-  </si>
-  <si>
     <t>殡葬工人（未分类）</t>
   </si>
   <si>
     <t>funeral workers</t>
   </si>
   <si>
-    <t>​451711</t>
-  </si>
-  <si>
     <t>乘务员</t>
   </si>
   <si>
     <t>flight attendant</t>
   </si>
   <si>
-    <t>​451815</t>
-  </si>
-  <si>
     <t>急救训练员</t>
   </si>
   <si>
     <t>first aid trainer</t>
   </si>
   <si>
-    <t>​452413</t>
-  </si>
-  <si>
     <t>赛马骑师</t>
   </si>
   <si>
     <t>jockey</t>
   </si>
   <si>
-    <t>​599915</t>
-  </si>
-  <si>
     <t>临床编码员</t>
   </si>
   <si>
     <t>clinical coder</t>
   </si>
   <si>
-    <t>​612112</t>
-  </si>
-  <si>
     <t>物业经理</t>
   </si>
   <si>
     <t>property manager</t>
-  </si>
-  <si>
-    <t>​612115</t>
   </si>
   <si>
     <t>房地产代表</t>
@@ -3166,11 +3030,188 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>anzsco</t>
+    <t>VETASSESS or TRA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VETASSESS or TRA</t>
+    <t>234311</t>
+  </si>
+  <si>
+    <t>121316</t>
+  </si>
+  <si>
+    <t>131114</t>
+  </si>
+  <si>
+    <t>132411</t>
+  </si>
+  <si>
+    <t>133112</t>
+  </si>
+  <si>
+    <t>133612</t>
+  </si>
+  <si>
+    <t>134211</t>
+  </si>
+  <si>
+    <t>134412</t>
+  </si>
+  <si>
+    <t>139915</t>
+  </si>
+  <si>
+    <t>141211</t>
+  </si>
+  <si>
+    <t>142115</t>
+  </si>
+  <si>
+    <t>149111</t>
+  </si>
+  <si>
+    <t>149112</t>
+  </si>
+  <si>
+    <t>149113</t>
+  </si>
+  <si>
+    <t>149912</t>
+  </si>
+  <si>
+    <t>149914</t>
+  </si>
+  <si>
+    <t>223111</t>
+  </si>
+  <si>
+    <t>223113</t>
+  </si>
+  <si>
+    <t>224412</t>
+  </si>
+  <si>
+    <t>224912</t>
+  </si>
+  <si>
+    <t>225112</t>
+  </si>
+  <si>
+    <t>231111</t>
+  </si>
+  <si>
+    <t>231113</t>
+  </si>
+  <si>
+    <t>231114</t>
+  </si>
+  <si>
+    <t>231213</t>
+  </si>
+  <si>
+    <t>232413</t>
+  </si>
+  <si>
+    <t>234213</t>
+  </si>
+  <si>
+    <t>234915</t>
+  </si>
+  <si>
+    <t>242211</t>
+  </si>
+  <si>
+    <t>251311</t>
+  </si>
+  <si>
+    <t>271214</t>
+  </si>
+  <si>
+    <t>272413</t>
+  </si>
+  <si>
+    <t>272611</t>
+  </si>
+  <si>
+    <t>311111</t>
+  </si>
+  <si>
+    <t>311214</t>
+  </si>
+  <si>
+    <t>311216</t>
+  </si>
+  <si>
+    <t>312114</t>
+  </si>
+  <si>
+    <t>312116</t>
+  </si>
+  <si>
+    <t>312511</t>
+  </si>
+  <si>
+    <t>312611</t>
+  </si>
+  <si>
+    <t>312911</t>
+  </si>
+  <si>
+    <t>312999</t>
+  </si>
+  <si>
+    <t>324311</t>
+  </si>
+  <si>
+    <t>332111</t>
+  </si>
+  <si>
+    <t>342211</t>
+  </si>
+  <si>
+    <t>361114</t>
+  </si>
+  <si>
+    <t>362411</t>
+  </si>
+  <si>
+    <t>399212</t>
+  </si>
+  <si>
+    <t>411211</t>
+  </si>
+  <si>
+    <t>411214</t>
+  </si>
+  <si>
+    <t>441211</t>
+  </si>
+  <si>
+    <t>451211</t>
+  </si>
+  <si>
+    <t>451399</t>
+  </si>
+  <si>
+    <t>451711</t>
+  </si>
+  <si>
+    <t>451815</t>
+  </si>
+  <si>
+    <t>452413</t>
+  </si>
+  <si>
+    <t>599915</t>
+  </si>
+  <si>
+    <t>612112</t>
+  </si>
+  <si>
+    <t>612115</t>
+  </si>
+  <si>
+    <t>ANZSCO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3216,12 +3257,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3279,7 +3320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3314,7 +3355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3525,18 +3566,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="57.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="57.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>379</v>
       </c>
@@ -3550,7 +3591,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>133111</v>
       </c>
@@ -3564,7 +3605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>133211</v>
       </c>
@@ -3578,7 +3619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>134111</v>
       </c>
@@ -3592,7 +3633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>134212</v>
       </c>
@@ -3606,7 +3647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>134213</v>
       </c>
@@ -3620,7 +3661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>134214</v>
       </c>
@@ -3634,7 +3675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>221111</v>
       </c>
@@ -3648,7 +3689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>221112</v>
       </c>
@@ -3662,7 +3703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>221113</v>
       </c>
@@ -3676,7 +3717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>221213</v>
       </c>
@@ -3690,7 +3731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>221214</v>
       </c>
@@ -3704,7 +3745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>224111</v>
       </c>
@@ -3718,7 +3759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>224511</v>
       </c>
@@ -3732,7 +3773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>224512</v>
       </c>
@@ -3746,7 +3787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>224711</v>
       </c>
@@ -3760,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>232111</v>
       </c>
@@ -3774,7 +3815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>232112</v>
       </c>
@@ -3788,7 +3829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>232212</v>
       </c>
@@ -3802,7 +3843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>232213</v>
       </c>
@@ -3816,7 +3857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>232214</v>
       </c>
@@ -3830,7 +3871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>233111</v>
       </c>
@@ -3844,7 +3885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>233112</v>
       </c>
@@ -3858,7 +3899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>233211</v>
       </c>
@@ -3872,7 +3913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>233212</v>
       </c>
@@ -3886,7 +3927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>233213</v>
       </c>
@@ -3900,7 +3941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>233214</v>
       </c>
@@ -3914,7 +3955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>233215</v>
       </c>
@@ -3928,7 +3969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>233311</v>
       </c>
@@ -3942,7 +3983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>233411</v>
       </c>
@@ -3956,7 +3997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>233511</v>
       </c>
@@ -3970,7 +4011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>233512</v>
       </c>
@@ -3984,7 +4025,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>233513</v>
       </c>
@@ -3998,7 +4039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>233911</v>
       </c>
@@ -4012,7 +4053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>233912</v>
       </c>
@@ -4026,7 +4067,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>233913</v>
       </c>
@@ -4040,7 +4081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>233914</v>
       </c>
@@ -4054,7 +4095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>233915</v>
       </c>
@@ -4068,7 +4109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>233916</v>
       </c>
@@ -4082,7 +4123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>234111</v>
       </c>
@@ -4096,7 +4137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>234112</v>
       </c>
@@ -4110,7 +4151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>234113</v>
       </c>
@@ -4124,7 +4165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>234611</v>
       </c>
@@ -4138,7 +4179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>234711</v>
       </c>
@@ -4152,7 +4193,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>234914</v>
       </c>
@@ -4166,7 +4207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>241111</v>
       </c>
@@ -4180,7 +4221,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>241411</v>
       </c>
@@ -4194,7 +4235,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>241511</v>
       </c>
@@ -4208,7 +4249,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>241512</v>
       </c>
@@ -4222,7 +4263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>241513</v>
       </c>
@@ -4236,7 +4277,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>241599</v>
       </c>
@@ -4250,7 +4291,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>251211</v>
       </c>
@@ -4264,7 +4305,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>251212</v>
       </c>
@@ -4278,7 +4319,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>251213</v>
       </c>
@@ -4292,7 +4333,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>251214</v>
       </c>
@@ -4306,7 +4347,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>251411</v>
       </c>
@@ -4320,7 +4361,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>251912</v>
       </c>
@@ -4334,7 +4375,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>252111</v>
       </c>
@@ -4348,7 +4389,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>252112</v>
       </c>
@@ -4362,7 +4403,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>252411</v>
       </c>
@@ -4376,7 +4417,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>252511</v>
       </c>
@@ -4390,7 +4431,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>252611</v>
       </c>
@@ -4404,7 +4445,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>252711</v>
       </c>
@@ -4418,7 +4459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>252712</v>
       </c>
@@ -4432,7 +4473,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>253111</v>
       </c>
@@ -4446,7 +4487,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>253311</v>
       </c>
@@ -4460,7 +4501,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>253312</v>
       </c>
@@ -4474,7 +4515,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>253313</v>
       </c>
@@ -4488,7 +4529,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>253314</v>
       </c>
@@ -4502,7 +4543,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>253315</v>
       </c>
@@ -4516,7 +4557,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>253316</v>
       </c>
@@ -4530,7 +4571,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>253317</v>
       </c>
@@ -4544,7 +4585,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>253318</v>
       </c>
@@ -4558,7 +4599,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>253321</v>
       </c>
@@ -4572,7 +4613,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>253322</v>
       </c>
@@ -4586,7 +4627,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>253323</v>
       </c>
@@ -4600,7 +4641,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>253324</v>
       </c>
@@ -4614,7 +4655,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>253399</v>
       </c>
@@ -4628,7 +4669,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>253411</v>
       </c>
@@ -4642,7 +4683,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>253511</v>
       </c>
@@ -4656,7 +4697,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>253512</v>
       </c>
@@ -4670,7 +4711,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>253513</v>
       </c>
@@ -4684,7 +4725,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>253514</v>
       </c>
@@ -4698,7 +4739,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>253515</v>
       </c>
@@ -4712,7 +4753,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>253516</v>
       </c>
@@ -4726,7 +4767,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>253517</v>
       </c>
@@ -4740,7 +4781,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>253518</v>
       </c>
@@ -4754,7 +4795,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>253521</v>
       </c>
@@ -4768,7 +4809,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>253911</v>
       </c>
@@ -4782,7 +4823,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>253912</v>
       </c>
@@ -4796,7 +4837,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>253913</v>
       </c>
@@ -4810,7 +4851,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>253914</v>
       </c>
@@ -4824,7 +4865,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>253915</v>
       </c>
@@ -4838,7 +4879,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>253917</v>
       </c>
@@ -4852,7 +4893,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>253918</v>
       </c>
@@ -4866,7 +4907,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>253999</v>
       </c>
@@ -4880,7 +4921,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>254111</v>
       </c>
@@ -4894,7 +4935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>254411</v>
       </c>
@@ -4908,7 +4949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>254412</v>
       </c>
@@ -4922,7 +4963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>254413</v>
       </c>
@@ -4936,7 +4977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>254414</v>
       </c>
@@ -4950,7 +4991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>254415</v>
       </c>
@@ -4964,7 +5005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>254416</v>
       </c>
@@ -4978,7 +5019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>254417</v>
       </c>
@@ -4992,7 +5033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>254418</v>
       </c>
@@ -5006,7 +5047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>254421</v>
       </c>
@@ -5020,7 +5061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>254422</v>
       </c>
@@ -5034,7 +5075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>254423</v>
       </c>
@@ -5048,7 +5089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>254424</v>
       </c>
@@ -5062,7 +5103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>254425</v>
       </c>
@@ -5076,7 +5117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>254499</v>
       </c>
@@ -5090,7 +5131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>261111</v>
       </c>
@@ -5104,7 +5145,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>261112</v>
       </c>
@@ -5118,7 +5159,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>261311</v>
       </c>
@@ -5132,7 +5173,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>261312</v>
       </c>
@@ -5146,7 +5187,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>261313</v>
       </c>
@@ -5160,7 +5201,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>262112</v>
       </c>
@@ -5174,7 +5215,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>263111</v>
       </c>
@@ -5188,7 +5229,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>263311</v>
       </c>
@@ -5202,7 +5243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>263312</v>
       </c>
@@ -5216,7 +5257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>271111</v>
       </c>
@@ -5230,7 +5271,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>271311</v>
       </c>
@@ -5244,7 +5285,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>272311</v>
       </c>
@@ -5258,7 +5299,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>272312</v>
       </c>
@@ -5272,7 +5313,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>272313</v>
       </c>
@@ -5286,7 +5327,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>272399</v>
       </c>
@@ -5300,7 +5341,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>272511</v>
       </c>
@@ -5314,7 +5355,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>312211</v>
       </c>
@@ -5328,7 +5369,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>312212</v>
       </c>
@@ -5342,7 +5383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>312311</v>
       </c>
@@ -5356,7 +5397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>312312</v>
       </c>
@@ -5370,7 +5411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>313211</v>
       </c>
@@ -5384,7 +5425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>313212</v>
       </c>
@@ -5398,7 +5439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>313213</v>
       </c>
@@ -5412,7 +5453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>313214</v>
       </c>
@@ -5426,7 +5467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>321111</v>
       </c>
@@ -5440,7 +5481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>321211</v>
       </c>
@@ -5454,7 +5495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>321212</v>
       </c>
@@ -5468,7 +5509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>321213</v>
       </c>
@@ -5482,7 +5523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>321214</v>
       </c>
@@ -5496,7 +5537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>322211</v>
       </c>
@@ -5510,7 +5551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>322311</v>
       </c>
@@ -5524,7 +5565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>322312</v>
       </c>
@@ -5538,7 +5579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144">
         <v>322313</v>
       </c>
@@ -5552,7 +5593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>323211</v>
       </c>
@@ -5566,7 +5607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146">
         <v>323212</v>
       </c>
@@ -5580,7 +5621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147">
         <v>323213</v>
       </c>
@@ -5594,7 +5635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148">
         <v>323214</v>
       </c>
@@ -5608,7 +5649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>323313</v>
       </c>
@@ -5622,7 +5663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>324111</v>
       </c>
@@ -5636,7 +5677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151">
         <v>331111</v>
       </c>
@@ -5650,7 +5691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152">
         <v>331112</v>
       </c>
@@ -5664,7 +5705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153">
         <v>331211</v>
       </c>
@@ -5678,7 +5719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>331212</v>
       </c>
@@ -5692,7 +5733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155">
         <v>331213</v>
       </c>
@@ -5706,7 +5747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156">
         <v>332211</v>
       </c>
@@ -5720,7 +5761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157">
         <v>333111</v>
       </c>
@@ -5734,7 +5775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>333211</v>
       </c>
@@ -5748,7 +5789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>333212</v>
       </c>
@@ -5762,7 +5803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160">
         <v>333411</v>
       </c>
@@ -5776,7 +5817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>334111</v>
       </c>
@@ -5790,7 +5831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>334112</v>
       </c>
@@ -5804,7 +5845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163">
         <v>334113</v>
       </c>
@@ -5818,7 +5859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>334114</v>
       </c>
@@ -5832,7 +5873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165">
         <v>334115</v>
       </c>
@@ -5846,7 +5887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>341111</v>
       </c>
@@ -5860,7 +5901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167">
         <v>341112</v>
       </c>
@@ -5874,7 +5915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>341113</v>
       </c>
@@ -5888,7 +5929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>342111</v>
       </c>
@@ -5902,7 +5943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>342212</v>
       </c>
@@ -5916,7 +5957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171">
         <v>342313</v>
       </c>
@@ -5930,7 +5971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172">
         <v>342314</v>
       </c>
@@ -5944,7 +5985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173">
         <v>342315</v>
       </c>
@@ -5958,7 +5999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174">
         <v>351311</v>
       </c>
@@ -5972,7 +6013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175">
         <v>394111</v>
       </c>
@@ -5986,7 +6027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176">
         <v>399111</v>
       </c>
@@ -6000,7 +6041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177">
         <v>399112</v>
       </c>
@@ -6017,7 +6058,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6029,15 +6075,15 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>872</v>
       </c>
@@ -6051,7 +6097,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>121111</v>
       </c>
@@ -6065,7 +6111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>121211</v>
       </c>
@@ -6079,7 +6125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>121212</v>
       </c>
@@ -6093,7 +6139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>121213</v>
       </c>
@@ -6107,7 +6153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>121214</v>
       </c>
@@ -6121,7 +6167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>121215</v>
       </c>
@@ -6135,7 +6181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>121216</v>
       </c>
@@ -6149,7 +6195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>121217</v>
       </c>
@@ -6163,7 +6209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>121221</v>
       </c>
@@ -6177,7 +6223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>121299</v>
       </c>
@@ -6191,7 +6237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>121311</v>
       </c>
@@ -6205,7 +6251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>121312</v>
       </c>
@@ -6219,7 +6265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>121313</v>
       </c>
@@ -6233,7 +6279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>121317</v>
       </c>
@@ -6247,7 +6293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>121318</v>
       </c>
@@ -6261,7 +6307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>121321</v>
       </c>
@@ -6275,7 +6321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>121322</v>
       </c>
@@ -6289,7 +6335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>121399</v>
       </c>
@@ -6303,7 +6349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>121411</v>
       </c>
@@ -6317,7 +6363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>131112</v>
       </c>
@@ -6331,7 +6377,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>131113</v>
       </c>
@@ -6345,7 +6391,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>132111</v>
       </c>
@@ -6359,7 +6405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>132211</v>
       </c>
@@ -6373,7 +6419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>132311</v>
       </c>
@@ -6387,7 +6433,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>132511</v>
       </c>
@@ -6401,7 +6447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>133411</v>
       </c>
@@ -6415,7 +6461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>133511</v>
       </c>
@@ -6429,7 +6475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>133512</v>
       </c>
@@ -6443,7 +6489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>133513</v>
       </c>
@@ -6457,7 +6503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>133611</v>
       </c>
@@ -6471,7 +6517,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>134299</v>
       </c>
@@ -6485,7 +6531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>134311</v>
       </c>
@@ -6499,7 +6545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>134499</v>
       </c>
@@ -6513,7 +6559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>135112</v>
       </c>
@@ -6527,7 +6573,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>135199</v>
       </c>
@@ -6541,7 +6587,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>139911</v>
       </c>
@@ -6555,7 +6601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>139913</v>
       </c>
@@ -6569,7 +6615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>139914</v>
       </c>
@@ -6583,7 +6629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>139999</v>
       </c>
@@ -6597,7 +6643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>141111</v>
       </c>
@@ -6611,7 +6657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>141311</v>
       </c>
@@ -6625,7 +6671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>141999</v>
       </c>
@@ -6639,7 +6685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>149212</v>
       </c>
@@ -6653,7 +6699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>149311</v>
       </c>
@@ -6667,7 +6713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>149413</v>
       </c>
@@ -6681,7 +6727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>149913</v>
       </c>
@@ -6695,7 +6741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>211112</v>
       </c>
@@ -6709,7 +6755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>211212</v>
       </c>
@@ -6723,7 +6769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>211299</v>
       </c>
@@ -6737,7 +6783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>211311</v>
       </c>
@@ -6751,7 +6797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>211499</v>
       </c>
@@ -6765,7 +6811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>212111</v>
       </c>
@@ -6779,7 +6825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>212212</v>
       </c>
@@ -6793,7 +6839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>212312</v>
       </c>
@@ -6807,7 +6853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>212314</v>
       </c>
@@ -6821,7 +6867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>212315</v>
       </c>
@@ -6835,7 +6881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>212316</v>
       </c>
@@ -6849,7 +6895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>212317</v>
       </c>
@@ -6863,7 +6909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>212318</v>
       </c>
@@ -6877,7 +6923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>212411</v>
       </c>
@@ -6891,7 +6937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>212412</v>
       </c>
@@ -6905,7 +6951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>212413</v>
       </c>
@@ -6919,7 +6965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>212415</v>
       </c>
@@ -6933,7 +6979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>212416</v>
       </c>
@@ -6947,7 +6993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>212499</v>
       </c>
@@ -6961,7 +7007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>221211</v>
       </c>
@@ -6975,7 +7021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>222111</v>
       </c>
@@ -6989,7 +7035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>222112</v>
       </c>
@@ -7003,7 +7049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>222113</v>
       </c>
@@ -7017,7 +7063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>222199</v>
       </c>
@@ -7031,7 +7077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>222211</v>
       </c>
@@ -7045,7 +7091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>222213</v>
       </c>
@@ -7059,7 +7105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>222299</v>
       </c>
@@ -7073,7 +7119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>222311</v>
       </c>
@@ -7087,7 +7133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>222312</v>
       </c>
@@ -7101,7 +7147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>223112</v>
       </c>
@@ -7115,7 +7161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>223211</v>
       </c>
@@ -7129,7 +7175,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>224112</v>
       </c>
@@ -7143,7 +7189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>224212</v>
       </c>
@@ -7157,7 +7203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>224213</v>
       </c>
@@ -7171,7 +7217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>224214</v>
       </c>
@@ -7185,7 +7231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>224611</v>
       </c>
@@ -7199,7 +7245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>224712</v>
       </c>
@@ -7213,7 +7259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>224914</v>
       </c>
@@ -7227,7 +7273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>224999</v>
       </c>
@@ -7241,7 +7287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>225111</v>
       </c>
@@ -7255,7 +7301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>225113</v>
       </c>
@@ -7269,7 +7315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>225211</v>
       </c>
@@ -7283,7 +7329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>225212</v>
       </c>
@@ -7297,7 +7343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>225213</v>
       </c>
@@ -7311,7 +7357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>225311</v>
       </c>
@@ -7325,7 +7371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>225499</v>
       </c>
@@ -7339,7 +7385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>232311</v>
       </c>
@@ -7353,7 +7399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>232312</v>
       </c>
@@ -7367,7 +7413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>232313</v>
       </c>
@@ -7381,7 +7427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>232411</v>
       </c>
@@ -7395,7 +7441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>232412</v>
       </c>
@@ -7409,7 +7455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>232414</v>
       </c>
@@ -7423,7 +7469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>232511</v>
       </c>
@@ -7437,7 +7483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>232611</v>
       </c>
@@ -7451,7 +7497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>234411</v>
       </c>
@@ -7465,7 +7511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>241213</v>
       </c>
@@ -7479,7 +7525,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>241311</v>
       </c>
@@ -7493,7 +7539,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>249111</v>
       </c>
@@ -7507,7 +7553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>249211</v>
       </c>
@@ -7521,7 +7567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>249212</v>
       </c>
@@ -7535,7 +7581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>249214</v>
       </c>
@@ -7549,7 +7595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>249299</v>
       </c>
@@ -7563,7 +7609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>249311</v>
       </c>
@@ -7577,7 +7623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>251111</v>
       </c>
@@ -7591,7 +7637,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>251112</v>
       </c>
@@ -7605,7 +7651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>251312</v>
       </c>
@@ -7619,7 +7665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>251412</v>
       </c>
@@ -7633,7 +7679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>251511</v>
       </c>
@@ -7647,7 +7693,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>251512</v>
       </c>
@@ -7661,7 +7707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>251513</v>
       </c>
@@ -7675,7 +7721,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>251911</v>
       </c>
@@ -7689,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>251999</v>
       </c>
@@ -7703,7 +7749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>252211</v>
       </c>
@@ -7717,7 +7763,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>252213</v>
       </c>
@@ -7731,7 +7777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>252214</v>
       </c>
@@ -7745,7 +7791,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>252299</v>
       </c>
@@ -7759,7 +7805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>252311</v>
       </c>
@@ -7773,7 +7819,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>252312</v>
       </c>
@@ -7787,7 +7833,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>253112</v>
       </c>
@@ -7801,7 +7847,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>253211</v>
       </c>
@@ -7815,7 +7861,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>254211</v>
       </c>
@@ -7829,7 +7875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>254212</v>
       </c>
@@ -7843,7 +7889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>254311</v>
       </c>
@@ -7857,7 +7903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>261212</v>
       </c>
@@ -7871,7 +7917,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>261314</v>
       </c>
@@ -7885,7 +7931,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>262111</v>
       </c>
@@ -7899,7 +7945,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>262113</v>
       </c>
@@ -7913,7 +7959,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>263112</v>
       </c>
@@ -7927,7 +7973,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>263113</v>
       </c>
@@ -7941,7 +7987,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>263211</v>
       </c>
@@ -7955,7 +8001,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>263212</v>
       </c>
@@ -7969,7 +8015,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>263213</v>
       </c>
@@ -7983,7 +8029,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>263299</v>
       </c>
@@ -7997,7 +8043,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>271299</v>
       </c>
@@ -8011,7 +8057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>272111</v>
       </c>
@@ -8025,7 +8071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>272112</v>
       </c>
@@ -8039,7 +8085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144">
         <v>272113</v>
       </c>
@@ -8053,7 +8099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>272114</v>
       </c>
@@ -8067,7 +8113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146">
         <v>272115</v>
       </c>
@@ -8081,7 +8127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147">
         <v>272199</v>
       </c>
@@ -8095,7 +8141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148">
         <v>272314</v>
       </c>
@@ -8109,7 +8155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>272412</v>
       </c>
@@ -8123,7 +8169,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>272499</v>
       </c>
@@ -8137,7 +8183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151">
         <v>272612</v>
       </c>
@@ -8151,7 +8197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152">
         <v>272613</v>
       </c>
@@ -8165,7 +8211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153">
         <v>311211</v>
       </c>
@@ -8179,7 +8225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>311212</v>
       </c>
@@ -8193,7 +8239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155">
         <v>311213</v>
       </c>
@@ -8207,7 +8253,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156">
         <v>311215</v>
       </c>
@@ -8221,7 +8267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157">
         <v>311299</v>
       </c>
@@ -8235,7 +8281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>311312</v>
       </c>
@@ -8249,7 +8295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>311399</v>
       </c>
@@ -8263,7 +8309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160">
         <v>311411</v>
       </c>
@@ -8277,7 +8323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>311412</v>
       </c>
@@ -8291,7 +8337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>311413</v>
       </c>
@@ -8305,7 +8351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163">
         <v>311499</v>
       </c>
@@ -8319,7 +8365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>312111</v>
       </c>
@@ -8333,7 +8379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165">
         <v>312113</v>
       </c>
@@ -8347,7 +8393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>312199</v>
       </c>
@@ -8361,7 +8407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167">
         <v>312512</v>
       </c>
@@ -8375,7 +8421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>312912</v>
       </c>
@@ -8389,7 +8435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>312913</v>
       </c>
@@ -8403,7 +8449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>313111</v>
       </c>
@@ -8417,7 +8463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171">
         <v>313112</v>
       </c>
@@ -8431,7 +8477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172">
         <v>313113</v>
       </c>
@@ -8445,7 +8491,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173">
         <v>313199</v>
       </c>
@@ -8459,7 +8505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174">
         <v>322113</v>
       </c>
@@ -8473,7 +8519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175">
         <v>323111</v>
       </c>
@@ -8487,7 +8533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176">
         <v>323112</v>
       </c>
@@ -8501,7 +8547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177">
         <v>323113</v>
       </c>
@@ -8515,7 +8561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178">
         <v>323215</v>
       </c>
@@ -8529,7 +8575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179">
         <v>323299</v>
       </c>
@@ -8543,7 +8589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180">
         <v>323314</v>
       </c>
@@ -8557,7 +8603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181">
         <v>323316</v>
       </c>
@@ -8571,7 +8617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182">
         <v>323412</v>
       </c>
@@ -8585,7 +8631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183">
         <v>324211</v>
       </c>
@@ -8599,7 +8645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184">
         <v>324212</v>
       </c>
@@ -8613,7 +8659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185">
         <v>333311</v>
       </c>
@@ -8627,7 +8673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186">
         <v>342311</v>
       </c>
@@ -8641,7 +8687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187">
         <v>342411</v>
       </c>
@@ -8655,7 +8701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188">
         <v>342413</v>
       </c>
@@ -8669,7 +8715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189">
         <v>351111</v>
       </c>
@@ -8683,7 +8729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190">
         <v>351112</v>
       </c>
@@ -8697,7 +8743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191">
         <v>351211</v>
       </c>
@@ -8711,7 +8757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192">
         <v>351411</v>
       </c>
@@ -8725,7 +8771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193">
         <v>361111</v>
       </c>
@@ -8739,7 +8785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194">
         <v>361199</v>
       </c>
@@ -8753,7 +8799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195">
         <v>361311</v>
       </c>
@@ -8767,7 +8813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="A196">
         <v>362111</v>
       </c>
@@ -8781,7 +8827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="A197">
         <v>362211</v>
       </c>
@@ -8795,7 +8841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="A198">
         <v>362212</v>
       </c>
@@ -8809,7 +8855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="A199">
         <v>362213</v>
       </c>
@@ -8823,7 +8869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4">
       <c r="A200">
         <v>362311</v>
       </c>
@@ -8837,7 +8883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201">
         <v>391111</v>
       </c>
@@ -8851,7 +8897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4">
       <c r="A202">
         <v>392111</v>
       </c>
@@ -8865,7 +8911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4">
       <c r="A203">
         <v>392311</v>
       </c>
@@ -8879,7 +8925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4">
       <c r="A204">
         <v>393213</v>
       </c>
@@ -8893,7 +8939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4">
       <c r="A205">
         <v>393311</v>
       </c>
@@ -8907,7 +8953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4">
       <c r="A206">
         <v>394211</v>
       </c>
@@ -8921,7 +8967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4">
       <c r="A207">
         <v>394213</v>
       </c>
@@ -8935,7 +8981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4">
       <c r="A208">
         <v>394299</v>
       </c>
@@ -8949,7 +8995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4">
       <c r="A209">
         <v>399211</v>
       </c>
@@ -8963,7 +9009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4">
       <c r="A210">
         <v>399213</v>
       </c>
@@ -8977,7 +9023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4">
       <c r="A211">
         <v>399312</v>
       </c>
@@ -8991,7 +9037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4">
       <c r="A212">
         <v>399411</v>
       </c>
@@ -9005,7 +9051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4">
       <c r="A213">
         <v>399512</v>
       </c>
@@ -9019,7 +9065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4">
       <c r="A214">
         <v>399514</v>
       </c>
@@ -9033,7 +9079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4">
       <c r="A215">
         <v>399516</v>
       </c>
@@ -9047,7 +9093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4">
       <c r="A216">
         <v>399599</v>
       </c>
@@ -9061,7 +9107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4">
       <c r="A217">
         <v>399611</v>
       </c>
@@ -9075,7 +9121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4">
       <c r="A218">
         <v>411111</v>
       </c>
@@ -9089,7 +9135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4">
       <c r="A219">
         <v>411112</v>
       </c>
@@ -9103,7 +9149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4">
       <c r="A220">
         <v>411213</v>
       </c>
@@ -9117,7 +9163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4">
       <c r="A221">
         <v>411311</v>
       </c>
@@ -9131,7 +9177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4">
       <c r="A222">
         <v>411411</v>
       </c>
@@ -9145,7 +9191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4">
       <c r="A223">
         <v>411611</v>
       </c>
@@ -9159,7 +9205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4">
       <c r="A224">
         <v>411711</v>
       </c>
@@ -9173,7 +9219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4">
       <c r="A225">
         <v>411712</v>
       </c>
@@ -9187,7 +9233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4">
       <c r="A226">
         <v>411713</v>
       </c>
@@ -9201,7 +9247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4">
       <c r="A227">
         <v>411715</v>
       </c>
@@ -9215,7 +9261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4">
       <c r="A228">
         <v>411716</v>
       </c>
@@ -9229,7 +9275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4">
       <c r="A229">
         <v>452311</v>
       </c>
@@ -9243,7 +9289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4">
       <c r="A230">
         <v>452312</v>
       </c>
@@ -9257,7 +9303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4">
       <c r="A231">
         <v>452313</v>
       </c>
@@ -9271,7 +9317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4">
       <c r="A232">
         <v>452314</v>
       </c>
@@ -9285,7 +9331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4">
       <c r="A233">
         <v>452315</v>
       </c>
@@ -9299,7 +9345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4">
       <c r="A234">
         <v>452316</v>
       </c>
@@ -9313,7 +9359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4">
       <c r="A235">
         <v>452317</v>
       </c>
@@ -9327,7 +9373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4">
       <c r="A236">
         <v>452321</v>
       </c>
@@ -9341,7 +9387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4">
       <c r="A237">
         <v>452411</v>
       </c>
@@ -9355,7 +9401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4">
       <c r="A238">
         <v>452499</v>
       </c>
@@ -9369,7 +9415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4">
       <c r="A239">
         <v>511111</v>
       </c>
@@ -9383,7 +9429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4">
       <c r="A240">
         <v>511112</v>
       </c>
@@ -9397,7 +9443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4">
       <c r="A241">
         <v>599612</v>
       </c>
@@ -9411,7 +9457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4">
       <c r="A242">
         <v>611211</v>
       </c>
@@ -9425,7 +9471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4">
       <c r="A243">
         <v>639211</v>
       </c>
@@ -9442,6 +9488,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9449,35 +9500,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>1046</v>
+        <v>1059</v>
       </c>
       <c r="B1" t="s">
-        <v>1044</v>
+        <v>997</v>
       </c>
       <c r="C1" t="s">
-        <v>1045</v>
+        <v>998</v>
       </c>
       <c r="D1" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>121316</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
         <v>876</v>
@@ -9489,813 +9540,813 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
         <v>878</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>879</v>
-      </c>
-      <c r="C3" t="s">
-        <v>880</v>
       </c>
       <c r="D3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C4" t="s">
         <v>881</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
         <v>882</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>883</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
         <v>884</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>885</v>
-      </c>
-      <c r="C5" t="s">
-        <v>886</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B6" t="s">
-        <v>888</v>
-      </c>
-      <c r="C6" t="s">
-        <v>889</v>
       </c>
       <c r="D6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>886</v>
+      </c>
+      <c r="C7" t="s">
+        <v>887</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>888</v>
+      </c>
+      <c r="C8" t="s">
+        <v>889</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
         <v>890</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
         <v>891</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
         <v>892</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C10" t="s">
         <v>893</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="s">
         <v>894</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>895</v>
       </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s">
         <v>896</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C12" t="s">
         <v>897</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="s">
         <v>898</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>141211</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C13" t="s">
         <v>899</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B14" t="s">
         <v>900</v>
       </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>142115</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C14" t="s">
         <v>901</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B15" t="s">
         <v>902</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C15" t="s">
         <v>903</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B16" t="s">
         <v>904</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>905</v>
       </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>149112</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B17" t="s">
         <v>906</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>907</v>
       </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>149113</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B18" t="s">
         <v>908</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
         <v>909</v>
       </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B19" t="s">
         <v>910</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C19" t="s">
         <v>911</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B20" t="s">
         <v>912</v>
       </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C20" t="s">
         <v>913</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B21" t="s">
         <v>914</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" t="s">
         <v>915</v>
       </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B22" t="s">
         <v>916</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C22" t="s">
         <v>917</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D22" t="s">
         <v>918</v>
       </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B23" t="s">
         <v>919</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C23" t="s">
         <v>920</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B24" t="s">
         <v>921</v>
       </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C24" t="s">
         <v>922</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D24" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B25" t="s">
         <v>923</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C25" t="s">
         <v>924</v>
       </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="D25" t="s">
         <v>925</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B26" t="s">
         <v>926</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C26" t="s">
         <v>927</v>
       </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B27" t="s">
         <v>928</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C27" t="s">
         <v>929</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B28" t="s">
         <v>930</v>
       </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>231111</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C28" t="s">
         <v>931</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B29" t="s">
         <v>932</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C29" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>231113</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B30" t="s">
         <v>934</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C30" t="s">
         <v>935</v>
       </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>231114</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D30" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B31" t="s">
         <v>936</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C31" t="s">
         <v>937</v>
       </c>
-      <c r="D24" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B32" t="s">
         <v>938</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C32" t="s">
         <v>939</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B33" t="s">
         <v>940</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C33" t="s">
         <v>941</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="B26" t="s">
-        <v>943</v>
-      </c>
-      <c r="C26" t="s">
-        <v>944</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>234213</v>
-      </c>
-      <c r="B27" t="s">
-        <v>945</v>
-      </c>
-      <c r="C27" t="s">
-        <v>946</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="B28" t="s">
-        <v>948</v>
-      </c>
-      <c r="C28" t="s">
-        <v>949</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="B29" t="s">
-        <v>951</v>
-      </c>
-      <c r="C29" t="s">
-        <v>952</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="B30" t="s">
-        <v>954</v>
-      </c>
-      <c r="C30" t="s">
-        <v>955</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="B31" t="s">
-        <v>957</v>
-      </c>
-      <c r="C31" t="s">
-        <v>958</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="B32" t="s">
-        <v>960</v>
-      </c>
-      <c r="C32" t="s">
-        <v>961</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="B33" t="s">
-        <v>963</v>
-      </c>
-      <c r="C33" t="s">
-        <v>964</v>
       </c>
       <c r="D33" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>965</v>
+        <v>1032</v>
       </c>
       <c r="B34" t="s">
-        <v>966</v>
+        <v>942</v>
       </c>
       <c r="C34" t="s">
-        <v>967</v>
+        <v>943</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>311111</v>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>1033</v>
       </c>
       <c r="B35" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="C35" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>970</v>
+        <v>1034</v>
       </c>
       <c r="B36" t="s">
-        <v>971</v>
+        <v>946</v>
       </c>
       <c r="C36" t="s">
-        <v>972</v>
+        <v>947</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>973</v>
+        <v>1035</v>
       </c>
       <c r="B37" t="s">
-        <v>974</v>
+        <v>948</v>
       </c>
       <c r="C37" t="s">
-        <v>975</v>
+        <v>949</v>
       </c>
       <c r="D37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>312114</v>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>1036</v>
       </c>
       <c r="B38" t="s">
-        <v>976</v>
+        <v>950</v>
       </c>
       <c r="C38" t="s">
-        <v>977</v>
+        <v>951</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>312116</v>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>1037</v>
       </c>
       <c r="B39" t="s">
-        <v>978</v>
+        <v>952</v>
       </c>
       <c r="C39" t="s">
-        <v>979</v>
+        <v>953</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>980</v>
+        <v>1038</v>
       </c>
       <c r="B40" t="s">
-        <v>981</v>
+        <v>954</v>
       </c>
       <c r="C40" t="s">
-        <v>982</v>
+        <v>955</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>983</v>
+        <v>1039</v>
       </c>
       <c r="B41" t="s">
-        <v>984</v>
+        <v>956</v>
       </c>
       <c r="C41" t="s">
-        <v>985</v>
+        <v>957</v>
       </c>
       <c r="D41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>986</v>
+        <v>1040</v>
       </c>
       <c r="B42" t="s">
-        <v>987</v>
+        <v>958</v>
       </c>
       <c r="C42" t="s">
-        <v>988</v>
+        <v>959</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>989</v>
+        <v>1041</v>
       </c>
       <c r="B43" t="s">
-        <v>990</v>
+        <v>960</v>
       </c>
       <c r="C43" t="s">
-        <v>991</v>
+        <v>961</v>
       </c>
       <c r="D43" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>993</v>
+        <v>1042</v>
       </c>
       <c r="B44" t="s">
-        <v>994</v>
+        <v>963</v>
       </c>
       <c r="C44" t="s">
-        <v>995</v>
+        <v>964</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>996</v>
+        <v>1043</v>
       </c>
       <c r="B45" t="s">
-        <v>997</v>
+        <v>965</v>
       </c>
       <c r="C45" t="s">
-        <v>998</v>
+        <v>966</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>999</v>
+        <v>1044</v>
       </c>
       <c r="B46" t="s">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="C46" t="s">
-        <v>1001</v>
+        <v>968</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>1002</v>
+        <v>1045</v>
       </c>
       <c r="B47" t="s">
-        <v>1003</v>
+        <v>969</v>
       </c>
       <c r="C47" t="s">
-        <v>1004</v>
+        <v>970</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>1005</v>
+        <v>1046</v>
       </c>
       <c r="B48" t="s">
-        <v>1006</v>
+        <v>971</v>
       </c>
       <c r="C48" t="s">
-        <v>1007</v>
+        <v>972</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>1008</v>
+        <v>1047</v>
       </c>
       <c r="B49" t="s">
-        <v>1009</v>
+        <v>973</v>
       </c>
       <c r="C49" t="s">
-        <v>1010</v>
+        <v>974</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>1011</v>
+        <v>1048</v>
       </c>
       <c r="B50" t="s">
-        <v>1012</v>
+        <v>975</v>
       </c>
       <c r="C50" t="s">
-        <v>1013</v>
+        <v>976</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>1014</v>
+        <v>1049</v>
       </c>
       <c r="B51" t="s">
-        <v>1015</v>
+        <v>977</v>
       </c>
       <c r="C51" t="s">
-        <v>1016</v>
+        <v>978</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>1017</v>
+        <v>1050</v>
       </c>
       <c r="B52" t="s">
-        <v>1018</v>
+        <v>979</v>
       </c>
       <c r="C52" t="s">
-        <v>1019</v>
+        <v>980</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>1020</v>
+        <v>1051</v>
       </c>
       <c r="B53" t="s">
-        <v>1021</v>
+        <v>981</v>
       </c>
       <c r="C53" t="s">
-        <v>1022</v>
+        <v>982</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>1023</v>
+        <v>1052</v>
       </c>
       <c r="B54" t="s">
-        <v>1024</v>
+        <v>983</v>
       </c>
       <c r="C54" t="s">
-        <v>1025</v>
+        <v>984</v>
       </c>
       <c r="D54" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>1026</v>
+        <v>1053</v>
       </c>
       <c r="B55" t="s">
-        <v>1027</v>
+        <v>985</v>
       </c>
       <c r="C55" t="s">
-        <v>1028</v>
+        <v>986</v>
       </c>
       <c r="D55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>1029</v>
+        <v>1054</v>
       </c>
       <c r="B56" t="s">
-        <v>1030</v>
+        <v>987</v>
       </c>
       <c r="C56" t="s">
-        <v>1031</v>
+        <v>988</v>
       </c>
       <c r="D56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>1032</v>
+        <v>1055</v>
       </c>
       <c r="B57" t="s">
-        <v>1033</v>
+        <v>989</v>
       </c>
       <c r="C57" t="s">
-        <v>1034</v>
+        <v>990</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>1035</v>
+        <v>1056</v>
       </c>
       <c r="B58" t="s">
-        <v>1036</v>
+        <v>991</v>
       </c>
       <c r="C58" t="s">
-        <v>1037</v>
+        <v>992</v>
       </c>
       <c r="D58" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>1038</v>
+        <v>1057</v>
       </c>
       <c r="B59" t="s">
-        <v>1039</v>
+        <v>993</v>
       </c>
       <c r="C59" t="s">
-        <v>1040</v>
+        <v>994</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>1041</v>
+        <v>1058</v>
       </c>
       <c r="B60" t="s">
-        <v>1042</v>
+        <v>995</v>
       </c>
       <c r="C60" t="s">
-        <v>1043</v>
+        <v>996</v>
       </c>
       <c r="D60" t="s">
         <v>2</v>
@@ -10304,5 +10355,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>